--- a/medicine/Mort/Mausolée/Mausolée.xlsx
+++ b/medicine/Mort/Mausolée/Mausolée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mausol%C3%A9e</t>
+          <t>Mausolée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un mausolée est un monument funéraire de grandes dimensions. Il doit son nom au satrape (gouverneur) de la province de Carie en Asie mineure, Mausole, pour qui, au IVe siècle av. J.-C., fut construit un tombeau monumental : le mausolée d'Halicarnasse, considéré comme l'une des Sept Merveilles du monde.
 Le mausolée contient le corps du défunt, contrairement au cénotaphe, et est alors considéré comme son tombeau.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mausol%C3%A9e</t>
+          <t>Mausolée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,6 +526,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -521,7 +535,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mausol%C3%A9e</t>
+          <t>Mausolée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -539,12 +553,14 @@
           <t>Le mausolée dans le monde romain</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">À Rome, le tombeau monumental le plus célèbre est le mausolée d'Hadrien (mort en 138), devenu le château Saint-Ange.
-Le mausolée d'Auguste se dresse sur le Champ de Mars et est sans doute inspiré du mausolée d'Alexandre le Grand[1], lequel vit celui de Mausole en -334, ou du moins ne le fit pas détruire lors du siège d'Halicarnasse[2].
+Le mausolée d'Auguste se dresse sur le Champ de Mars et est sans doute inspiré du mausolée d'Alexandre le Grand, lequel vit celui de Mausole en -334, ou du moins ne le fit pas détruire lors du siège d'Halicarnasse.
 Dès la fin du Ier siècle de notre ère, le modèle architectural du « mausolée-temple » se répand dans les provinces de l'Empire. Leur morphologie rappelle celle des temples de tradition latine : cella, pronaos, façade principale surélevée sur un podium et précédée par un emmarchement.
-Le mausolée-temple de Lanuéjols (Lozère) en est un bon exemple[3].
+Le mausolée-temple de Lanuéjols (Lozère) en est un bon exemple.
 </t>
         </is>
       </c>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Mausol%C3%A9e</t>
+          <t>Mausolée</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,8 +591,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Mausolées du monde antique
-Mausolée d'Halicarnasse (Turquie)
+          <t>Mausolées du monde antique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Mausolée d'Halicarnasse (Turquie)
 le Sôma, mausolée d'Alexandre le Grand (Égypte)
 Mausolée de l'empereur Qin (Chine)
 Mausolée d'Hadrien, actuel château Saint-Ange (Italie)
@@ -590,14 +611,82 @@
 Mausolée de Galla Placidia (Italie)
 Mausolée de Théodoric (Italie)
 Mausolée de Cyrus (Iran)
-Tombeau de Tin Hinan (Algérie)
-Mausolées du monde moderne
-Mausolée d'Abakh Khoja (Kachgar Chine)
+Tombeau de Tin Hinan (Algérie)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Mausolée</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mausol%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Mausolées célèbres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Mausolées du monde moderne</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Mausolée d'Abakh Khoja (Kachgar Chine)
 Mausolée de Fakhr ad-Dîn ar-Râzî (Afghanistan)
 Taj Mahal (Agra Inde)
-Tourbet El Bey (Tunisie)
-Mausolées du monde contemporain
-Mausolées de Tombouctou (Tombouctou, Mali)
+Tourbet El Bey (Tunisie)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Mausolée</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mausol%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Mausolées célèbres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Mausolées du monde contemporain</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Mausolées de Tombouctou (Tombouctou, Mali)
 Mausolée Mohammed V (Rabat, Maroc)
 Mausolée d'Atatürk (Ankara, Turquie)
 Mausolée de Hô Chi Minh (Hanoï, Viêt Nam)
@@ -622,31 +711,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Mausol%C3%A9e</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Mausolée</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Mort/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Mausol%C3%A9e</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Littérature</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Mausolée, de Rouja Lazarova, où le symbole de l'absurdité du régime communiste bulgare est le mausolée du dirigeant Georgi Dimitrov.
 Dictionnaire de la mort sous la direction de Philippe Di Folco, collection « In Extenso », éd. Larousse, 2010, p. 661,  (ISBN 978-2-03-584846-8).</t>
